--- a/学习进度监控.xlsx
+++ b/学习进度监控.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9108" windowHeight="12036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9108" windowHeight="12036" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CS61A" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="时长" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>Week1</t>
   </si>
@@ -220,18 +221,34 @@
   </si>
   <si>
     <t>Week5 1/5 - 1/11</t>
+  </si>
+  <si>
+    <t>日期时间</t>
+  </si>
+  <si>
+    <t>分钟</t>
+  </si>
+  <si>
+    <t>100+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -302,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -329,6 +346,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1146,14 +1169,1856 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9">
+        <v>46025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9">
+        <v>46026</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="9">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="9">
+        <v>46042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="9">
+        <v>46043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="9">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="9">
+        <v>46045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="9">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="9">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="9">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="9">
+        <v>46049</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="9">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="9">
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="9">
+        <v>46052</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="9">
+        <v>46053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="9">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="9">
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="9">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="9">
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="9">
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="9">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="9">
+        <v>46060</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="9">
+        <v>46061</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="9">
+        <v>46062</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="9">
+        <v>46063</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="9">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="9">
+        <v>46065</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="9">
+        <v>46066</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="9">
+        <v>46067</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="9">
+        <v>46068</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="9">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="9">
+        <v>46070</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="9">
+        <v>46071</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="9">
+        <v>46072</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="9">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="9">
+        <v>46074</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="9">
+        <v>46075</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="9">
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="9">
+        <v>46077</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="9">
+        <v>46078</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="9">
+        <v>46079</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="9">
+        <v>46080</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="9">
+        <v>46081</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="9">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="9">
+        <v>46083</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="9">
+        <v>46084</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="9">
+        <v>46085</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="9">
+        <v>46086</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="9">
+        <v>46087</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="9">
+        <v>46088</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="9">
+        <v>46089</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="9">
+        <v>46090</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="9">
+        <v>46091</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="9">
+        <v>46092</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="9">
+        <v>46093</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="9">
+        <v>46094</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="9">
+        <v>46095</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="9">
+        <v>46096</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="9">
+        <v>46097</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="9">
+        <v>46098</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="9">
+        <v>46099</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="9">
+        <v>46100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="9">
+        <v>46101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="9">
+        <v>46102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="9">
+        <v>46103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="9">
+        <v>46104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="9">
+        <v>46105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="9">
+        <v>46106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="9">
+        <v>46107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="9">
+        <v>46108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="9">
+        <v>46109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="9">
+        <v>46110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="9">
+        <v>46111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="9">
+        <v>46112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="9">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="9">
+        <v>46114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="9">
+        <v>46115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="9">
+        <v>46116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="9">
+        <v>46117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="9">
+        <v>46118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="9">
+        <v>46119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="9">
+        <v>46120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="9">
+        <v>46121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="9">
+        <v>46122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="9">
+        <v>46123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="9">
+        <v>46124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="9">
+        <v>46125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="9">
+        <v>46126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="9">
+        <v>46127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="9">
+        <v>46128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="9">
+        <v>46129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="9">
+        <v>46130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="9">
+        <v>46131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="9">
+        <v>46132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="9">
+        <v>46133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="9">
+        <v>46134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="9">
+        <v>46135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="9">
+        <v>46136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="9">
+        <v>46137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="9">
+        <v>46138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="9">
+        <v>46139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="9">
+        <v>46140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="9">
+        <v>46141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="9">
+        <v>46142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="9">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="9">
+        <v>46144</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="9">
+        <v>46145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="9">
+        <v>46146</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="9">
+        <v>46147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="9">
+        <v>46148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="9">
+        <v>46149</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="9">
+        <v>46150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="9">
+        <v>46151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="9">
+        <v>46152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="9">
+        <v>46153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="9">
+        <v>46154</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="9">
+        <v>46155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="9">
+        <v>46156</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="9">
+        <v>46157</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="9">
+        <v>46158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="9">
+        <v>46159</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="9">
+        <v>46160</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="9">
+        <v>46161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="9">
+        <v>46162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="9">
+        <v>46163</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="9">
+        <v>46164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="9">
+        <v>46165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="9">
+        <v>46166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="9">
+        <v>46167</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="9">
+        <v>46168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="9">
+        <v>46169</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="9">
+        <v>46170</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="9">
+        <v>46171</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="9">
+        <v>46172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="9">
+        <v>46173</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="9">
+        <v>46174</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="9">
+        <v>46175</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="9">
+        <v>46176</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="9">
+        <v>46177</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="9">
+        <v>46178</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="9">
+        <v>46179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="9">
+        <v>46180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="9">
+        <v>46181</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="9">
+        <v>46182</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="9">
+        <v>46183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="9">
+        <v>46184</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="9">
+        <v>46185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="9">
+        <v>46186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="9">
+        <v>46187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="9">
+        <v>46188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="9">
+        <v>46189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="9">
+        <v>46190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="9">
+        <v>46191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="9">
+        <v>46192</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="9">
+        <v>46193</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="9">
+        <v>46194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="9">
+        <v>46195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="9">
+        <v>46196</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="9">
+        <v>46197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="9">
+        <v>46198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="9">
+        <v>46199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="9">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="9">
+        <v>46201</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="9">
+        <v>46202</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="9">
+        <v>46203</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="9">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="9">
+        <v>46205</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="9">
+        <v>46206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="9">
+        <v>46207</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="9">
+        <v>46208</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="9">
+        <v>46209</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="9">
+        <v>46210</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="9">
+        <v>46211</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="9">
+        <v>46212</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="9">
+        <v>46213</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="9">
+        <v>46214</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="9">
+        <v>46215</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="9">
+        <v>46216</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="9">
+        <v>46217</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="9">
+        <v>46218</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="9">
+        <v>46219</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="9">
+        <v>46220</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="9">
+        <v>46221</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="9">
+        <v>46222</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="9">
+        <v>46223</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="9">
+        <v>46224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="9">
+        <v>46225</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="9">
+        <v>46226</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="9">
+        <v>46227</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="9">
+        <v>46228</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="9">
+        <v>46229</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="9">
+        <v>46230</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="9">
+        <v>46231</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="9">
+        <v>46232</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="9">
+        <v>46233</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="9">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="9">
+        <v>46235</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="9">
+        <v>46236</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="9">
+        <v>46237</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="9">
+        <v>46238</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="9">
+        <v>46239</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="9">
+        <v>46240</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="9">
+        <v>46241</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="9">
+        <v>46242</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="9">
+        <v>46243</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="9">
+        <v>46244</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="9">
+        <v>46245</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="9">
+        <v>46246</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="9">
+        <v>46247</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="9">
+        <v>46248</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="9">
+        <v>46249</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="9">
+        <v>46250</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="9">
+        <v>46251</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="9">
+        <v>46252</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="9">
+        <v>46253</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="9">
+        <v>46254</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="9">
+        <v>46255</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="9">
+        <v>46256</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="9">
+        <v>46257</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="9">
+        <v>46258</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="9">
+        <v>46259</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="9">
+        <v>46260</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="9">
+        <v>46261</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="9">
+        <v>46262</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="9">
+        <v>46263</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="9">
+        <v>46264</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="9">
+        <v>46265</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="9">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="9">
+        <v>46267</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="9">
+        <v>46268</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="9">
+        <v>46269</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="9">
+        <v>46270</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="9">
+        <v>46271</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="9">
+        <v>46272</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="9">
+        <v>46273</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="9">
+        <v>46274</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="9">
+        <v>46275</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="9">
+        <v>46276</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="9">
+        <v>46277</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="9">
+        <v>46278</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="9">
+        <v>46279</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="9">
+        <v>46280</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="9">
+        <v>46281</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="9">
+        <v>46282</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="9">
+        <v>46283</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="9">
+        <v>46284</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="9">
+        <v>46285</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="9">
+        <v>46286</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="9">
+        <v>46287</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="9">
+        <v>46288</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="9">
+        <v>46289</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="9">
+        <v>46290</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="9">
+        <v>46291</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="9">
+        <v>46292</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="9">
+        <v>46293</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="9">
+        <v>46294</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="9">
+        <v>46295</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="9">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="9">
+        <v>46297</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="9">
+        <v>46298</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="9">
+        <v>46299</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="9">
+        <v>46300</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="9">
+        <v>46301</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="9">
+        <v>46302</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="9">
+        <v>46303</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="9">
+        <v>46304</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="9">
+        <v>46305</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="9">
+        <v>46306</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="9">
+        <v>46307</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="9">
+        <v>46308</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="9">
+        <v>46309</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="9">
+        <v>46310</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="9">
+        <v>46311</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="9">
+        <v>46312</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="9">
+        <v>46313</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="9">
+        <v>46314</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="9">
+        <v>46315</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="9">
+        <v>46316</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="9">
+        <v>46317</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="9">
+        <v>46318</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="9">
+        <v>46319</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="9">
+        <v>46320</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="9">
+        <v>46321</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="9">
+        <v>46322</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="9">
+        <v>46323</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="9">
+        <v>46324</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="9">
+        <v>46325</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="9">
+        <v>46326</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="9">
+        <v>46327</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="9">
+        <v>46328</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="9">
+        <v>46329</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="9">
+        <v>46330</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="9">
+        <v>46331</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="9">
+        <v>46332</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="9">
+        <v>46333</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="9">
+        <v>46334</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="9">
+        <v>46335</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="9">
+        <v>46336</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="9">
+        <v>46337</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="9">
+        <v>46338</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="9">
+        <v>46339</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="9">
+        <v>46340</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="9">
+        <v>46341</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="9">
+        <v>46342</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="9">
+        <v>46343</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="9">
+        <v>46344</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="9">
+        <v>46345</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="9">
+        <v>46346</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="9">
+        <v>46347</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="9">
+        <v>46348</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="9">
+        <v>46349</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="9">
+        <v>46350</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="9">
+        <v>46351</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="9">
+        <v>46352</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="9">
+        <v>46353</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="9">
+        <v>46354</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="9">
+        <v>46355</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="9">
+        <v>46356</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="9">
+        <v>46357</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="9">
+        <v>46358</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="9">
+        <v>46359</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="9">
+        <v>46360</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="9">
+        <v>46361</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="9">
+        <v>46362</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="9">
+        <v>46363</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="9">
+        <v>46364</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="9">
+        <v>46365</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="9">
+        <v>46366</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="9">
+        <v>46367</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="9">
+        <v>46368</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="9">
+        <v>46369</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="9">
+        <v>46370</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="9">
+        <v>46371</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="9">
+        <v>46372</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="9">
+        <v>46373</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="9">
+        <v>46374</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="9">
+        <v>46375</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="9">
+        <v>46376</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="9">
+        <v>46377</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="9">
+        <v>46378</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="9">
+        <v>46379</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="9">
+        <v>46380</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="9">
+        <v>46381</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="9">
+        <v>46382</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="9">
+        <v>46383</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="9">
+        <v>46384</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="9">
+        <v>46385</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="9">
+        <v>46386</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="9">
+        <v>46387</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1168,4 +3033,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/学习进度监控.xlsx
+++ b/学习进度监控.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9108" windowHeight="12036" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9108" windowHeight="12036"/>
   </bookViews>
   <sheets>
     <sheet name="CS61A" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>Week1</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Week11</t>
-  </si>
-  <si>
-    <t>Lab 8: Scheme&amp;Discussion</t>
   </si>
   <si>
     <t>Week2</t>
@@ -230,6 +227,34 @@
   </si>
   <si>
     <t>100+</t>
+  </si>
+  <si>
+    <t>Week12</t>
+  </si>
+  <si>
+    <t>Week13</t>
+  </si>
+  <si>
+    <t>HW 07: Scheme</t>
+  </si>
+  <si>
+    <t>HW 08: Scheme Lists</t>
+  </si>
+  <si>
+    <t>Lab 8: Scheme</t>
+  </si>
+  <si>
+    <t>Disc 10: Scheme, Scheme Lists</t>
+  </si>
+  <si>
+    <t>Lecture
+32. Interpreters</t>
+  </si>
+  <si>
+    <t>Lab 09: Interpreters</t>
+  </si>
+  <si>
+    <t>Week6 1/12 -1/18</t>
   </si>
 </sst>
 </file>
@@ -620,46 +645,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR74"/>
+  <dimension ref="A1:AR64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ64" sqref="AJ64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="56.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="1" customWidth="1"/>
-    <col min="4" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="9.21875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="1"/>
-    <col min="24" max="24" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="30" width="9" style="1"/>
+    <col min="3" max="3" width="10.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="8" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="16" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="21" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="30" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="1"/>
+    <col min="32" max="37" width="9" style="1"/>
+    <col min="38" max="38" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
       <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="7" t="s">
-        <v>61</v>
+      <c r="AL1" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:44">
@@ -790,22 +820,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" hidden="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" hidden="1">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" hidden="1">
       <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" hidden="1">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -823,34 +853,34 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" hidden="1">
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" hidden="1">
       <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" hidden="1">
       <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" ht="43.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" ht="43.2" hidden="1">
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" hidden="1">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
@@ -862,169 +892,169 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" hidden="1">
       <c r="B12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" hidden="1">
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" hidden="1">
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:44">
-      <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="U14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="V14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="2" t="s">
+      <c r="W14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="Y14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y14" s="6" t="s">
+      <c r="Z14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z14" s="6" t="s">
+      <c r="AA14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA14" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="AB14" s="6"/>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" hidden="1">
       <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44" ht="57.6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" ht="57.6" hidden="1">
       <c r="B16" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" hidden="1">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:42" hidden="1">
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:42" hidden="1">
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:42" hidden="1">
       <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" hidden="1">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:42" ht="43.2">
+    <row r="22" spans="1:42" ht="43.2" hidden="1">
       <c r="B22" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" hidden="1">
+      <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
-      <c r="B23" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:42" hidden="1">
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:42" hidden="1">
       <c r="B25" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" hidden="1">
       <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" ht="57.6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" ht="57.6" hidden="1">
       <c r="B27" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" hidden="1">
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:42" hidden="1">
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="AH29" s="4"/>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:42" hidden="1">
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="AI30" s="4"/>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:42" hidden="1">
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
@@ -1034,131 +1064,191 @@
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:42" hidden="1">
       <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" hidden="1">
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" hidden="1">
       <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" hidden="1">
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" hidden="1">
       <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" hidden="1">
       <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" hidden="1">
       <c r="A38" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" hidden="1">
       <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" hidden="1">
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" hidden="1">
       <c r="B41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" hidden="1">
       <c r="B42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" hidden="1">
       <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" hidden="1">
       <c r="A44" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="57.6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="57.6" hidden="1">
       <c r="B45" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" hidden="1">
       <c r="B46" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" hidden="1">
       <c r="B47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" hidden="1">
       <c r="B48" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:37" hidden="1">
       <c r="B49" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
+    <row r="50" spans="1:37">
+      <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="B71" s="1" t="s">
+    <row r="51" spans="1:37">
+      <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="B72" s="1" t="s">
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+    </row>
+    <row r="52" spans="1:37">
+      <c r="B52" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="B73" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="B74" s="1" t="s">
-        <v>3</v>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+    </row>
+    <row r="53" spans="1:37">
+      <c r="B53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG53" s="4"/>
+    </row>
+    <row r="54" spans="1:37">
+      <c r="B54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI54" s="4"/>
+    </row>
+    <row r="55" spans="1:37">
+      <c r="B55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ55" s="4"/>
+      <c r="AK55" s="4"/>
+    </row>
+    <row r="56" spans="1:37">
+      <c r="B56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ56" s="4"/>
+      <c r="AK56" s="4"/>
+    </row>
+    <row r="57" spans="1:37">
+      <c r="A57" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" ht="28.8">
+      <c r="B58" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37">
+      <c r="B59" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37">
+      <c r="B60" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37">
+      <c r="B61" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37">
+      <c r="B62" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37">
+      <c r="B63" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1171,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1182,10 +1272,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1208,7 +1298,7 @@
         <v>46026</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2">
